--- a/Output_testing/R1_201907/Country/HKD/MN/NEW ZEALAND_201907_HKD_MN.xlsx
+++ b/Output_testing/R1_201907/Country/HKD/MN/NEW ZEALAND_201907_HKD_MN.xlsx
@@ -810,136 +810,433 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="11" t="n"/>
-      <c r="C18" s="12" t="n"/>
-      <c r="D18" s="13" t="n"/>
-      <c r="E18" s="12" t="n"/>
-      <c r="F18" s="13" t="n"/>
-      <c r="G18" s="12" t="n"/>
-      <c r="H18" s="13" t="n"/>
-      <c r="I18" s="12" t="n"/>
-      <c r="J18" s="13" t="n"/>
-      <c r="K18" s="13" t="n"/>
+      <c r="A18" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B18" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C18" s="8" t="n">
+        <v>1605.613541</v>
+      </c>
+      <c r="D18" s="9" t="n">
+        <v>38.0858419239057</v>
+      </c>
+      <c r="E18" s="8" t="n">
+        <v>1376.719671</v>
+      </c>
+      <c r="F18" s="9" t="n">
+        <v>33.01631107288311</v>
+      </c>
+      <c r="G18" s="8" t="n">
+        <v>1560.977445</v>
+      </c>
+      <c r="H18" s="9" t="n">
+        <v>30.16327712705319</v>
+      </c>
+      <c r="I18" s="8" t="n">
+        <v>898.493651</v>
+      </c>
+      <c r="J18" s="9" t="n">
+        <v>28.31242627276693</v>
+      </c>
+      <c r="K18" s="9" t="n">
+        <v>15.54039772274427</v>
+      </c>
     </row>
     <row r="19">
-      <c r="A19" s="11" t="n"/>
-      <c r="C19" s="12" t="n"/>
-      <c r="D19" s="13" t="n"/>
-      <c r="E19" s="12" t="n"/>
-      <c r="F19" s="13" t="n"/>
-      <c r="G19" s="12" t="n"/>
-      <c r="H19" s="13" t="n"/>
-      <c r="I19" s="12" t="n"/>
-      <c r="J19" s="13" t="n"/>
-      <c r="K19" s="13" t="n"/>
+      <c r="A19" s="11" t="inlineStr">
+        <is>
+          <t>714</t>
+        </is>
+      </c>
+      <c r="B19" s="1" t="inlineStr">
+        <is>
+          <t>ENGINES AND MOTORS, NON-ELECTRIC (OTHER THAN THOSE OF GROUPS 712, 713 AND 718); PARTS, N.E.S. OF THESE ENGINES AND MOTORS</t>
+        </is>
+      </c>
+      <c r="C19" s="8" t="n">
+        <v>3.749079</v>
+      </c>
+      <c r="D19" s="9" t="n">
+        <v>0.08892976205550975</v>
+      </c>
+      <c r="E19" s="8" t="n">
+        <v>15.037237</v>
+      </c>
+      <c r="F19" s="9" t="n">
+        <v>0.3606210508403984</v>
+      </c>
+      <c r="G19" s="8" t="n">
+        <v>647.181345</v>
+      </c>
+      <c r="H19" s="9" t="n">
+        <v>12.50569655777058</v>
+      </c>
+      <c r="I19" s="8" t="n">
+        <v>664.87131</v>
+      </c>
+      <c r="J19" s="9" t="n">
+        <v>20.95075454823995</v>
+      </c>
+      <c r="K19" s="9" t="n">
+        <v>176.4283276998878</v>
+      </c>
     </row>
     <row r="20">
-      <c r="A20" s="11" t="n"/>
-      <c r="C20" s="12" t="n"/>
-      <c r="D20" s="13" t="n"/>
-      <c r="E20" s="12" t="n"/>
-      <c r="F20" s="13" t="n"/>
-      <c r="G20" s="12" t="n"/>
-      <c r="H20" s="13" t="n"/>
-      <c r="I20" s="12" t="n"/>
-      <c r="J20" s="13" t="n"/>
-      <c r="K20" s="13" t="n"/>
+      <c r="A20" s="11" t="inlineStr">
+        <is>
+          <t>752</t>
+        </is>
+      </c>
+      <c r="B20" s="1" t="inlineStr">
+        <is>
+          <t>AUTOMATIC DATA PROCESSING MACHINES &amp; UNITS THEREOF; MAGNETIC OR OPTICAL READERS, MACHINES FOR TRANSCRIBING DATA ONTO DATA MEDIA IN CODED FORM AND FOR PROCESSING SUCH DATA, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C20" s="8" t="n">
+        <v>358.866269</v>
+      </c>
+      <c r="D20" s="9" t="n">
+        <v>8.512461837138815</v>
+      </c>
+      <c r="E20" s="8" t="n">
+        <v>514.769624</v>
+      </c>
+      <c r="F20" s="9" t="n">
+        <v>12.34513779011375</v>
+      </c>
+      <c r="G20" s="8" t="n">
+        <v>520.769628</v>
+      </c>
+      <c r="H20" s="9" t="n">
+        <v>10.06300165260645</v>
+      </c>
+      <c r="I20" s="8" t="n">
+        <v>286.122217</v>
+      </c>
+      <c r="J20" s="9" t="n">
+        <v>9.01599489856954</v>
+      </c>
+      <c r="K20" s="9" t="n">
+        <v>-7.370604881029497</v>
+      </c>
     </row>
     <row r="21">
-      <c r="A21" s="11" t="n"/>
-      <c r="C21" s="12" t="n"/>
-      <c r="D21" s="13" t="n"/>
-      <c r="E21" s="12" t="n"/>
-      <c r="F21" s="13" t="n"/>
-      <c r="G21" s="12" t="n"/>
-      <c r="H21" s="13" t="n"/>
-      <c r="I21" s="12" t="n"/>
-      <c r="J21" s="13" t="n"/>
-      <c r="K21" s="13" t="n"/>
+      <c r="A21" s="11" t="inlineStr">
+        <is>
+          <t>884</t>
+        </is>
+      </c>
+      <c r="B21" s="1" t="inlineStr">
+        <is>
+          <t>OPTICAL GOODS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C21" s="8" t="n">
+        <v>97.19162300000001</v>
+      </c>
+      <c r="D21" s="9" t="n">
+        <v>2.305426988115964</v>
+      </c>
+      <c r="E21" s="8" t="n">
+        <v>130.374512</v>
+      </c>
+      <c r="F21" s="9" t="n">
+        <v>3.1266244935984</v>
+      </c>
+      <c r="G21" s="8" t="n">
+        <v>183.769854</v>
+      </c>
+      <c r="H21" s="9" t="n">
+        <v>3.551044924803576</v>
+      </c>
+      <c r="I21" s="8" t="n">
+        <v>112.048885</v>
+      </c>
+      <c r="J21" s="9" t="n">
+        <v>3.530771521843776</v>
+      </c>
+      <c r="K21" s="9" t="n">
+        <v>9.329451554398771</v>
+      </c>
     </row>
     <row r="22">
-      <c r="A22" s="11" t="n"/>
-      <c r="C22" s="12" t="n"/>
-      <c r="D22" s="13" t="n"/>
-      <c r="E22" s="12" t="n"/>
-      <c r="F22" s="13" t="n"/>
-      <c r="G22" s="12" t="n"/>
-      <c r="H22" s="13" t="n"/>
-      <c r="I22" s="12" t="n"/>
-      <c r="J22" s="13" t="n"/>
-      <c r="K22" s="13" t="n"/>
+      <c r="A22" s="11" t="inlineStr">
+        <is>
+          <t>831</t>
+        </is>
+      </c>
+      <c r="B22" s="1" t="inlineStr">
+        <is>
+          <t>TRAVEL GOODS, HANDBAGS AND SIMILAR CONTAINERS</t>
+        </is>
+      </c>
+      <c r="C22" s="8" t="n">
+        <v>100.539589</v>
+      </c>
+      <c r="D22" s="9" t="n">
+        <v>2.384842177753189</v>
+      </c>
+      <c r="E22" s="8" t="n">
+        <v>98.49408699999999</v>
+      </c>
+      <c r="F22" s="9" t="n">
+        <v>2.362072311256757</v>
+      </c>
+      <c r="G22" s="8" t="n">
+        <v>175.622375</v>
+      </c>
+      <c r="H22" s="9" t="n">
+        <v>3.393608526378328</v>
+      </c>
+      <c r="I22" s="8" t="n">
+        <v>88.98845900000001</v>
+      </c>
+      <c r="J22" s="9" t="n">
+        <v>2.804114622023793</v>
+      </c>
+      <c r="K22" s="9" t="n">
+        <v>-6.692051048458103</v>
+      </c>
     </row>
     <row r="23">
-      <c r="A23" s="11" t="n"/>
-      <c r="C23" s="12" t="n"/>
-      <c r="D23" s="13" t="n"/>
-      <c r="E23" s="12" t="n"/>
-      <c r="F23" s="13" t="n"/>
-      <c r="G23" s="12" t="n"/>
-      <c r="H23" s="13" t="n"/>
-      <c r="I23" s="12" t="n"/>
-      <c r="J23" s="13" t="n"/>
-      <c r="K23" s="13" t="n"/>
+      <c r="A23" s="11" t="inlineStr">
+        <is>
+          <t>897</t>
+        </is>
+      </c>
+      <c r="B23" s="1" t="inlineStr">
+        <is>
+          <t>JEWELLERY, GOLDSMITHS' AND SILVERSMITHS' WARES, AND OTHER ARTICLES OF PRECIOUS OR SEMI-PRECIOUS MATERIALS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C23" s="8" t="n">
+        <v>127.230845</v>
+      </c>
+      <c r="D23" s="9" t="n">
+        <v>3.017970219344922</v>
+      </c>
+      <c r="E23" s="8" t="n">
+        <v>100.243368</v>
+      </c>
+      <c r="F23" s="9" t="n">
+        <v>2.404023339390126</v>
+      </c>
+      <c r="G23" s="8" t="n">
+        <v>115.23628</v>
+      </c>
+      <c r="H23" s="9" t="n">
+        <v>2.226748285098185</v>
+      </c>
+      <c r="I23" s="8" t="n">
+        <v>72.218293</v>
+      </c>
+      <c r="J23" s="9" t="n">
+        <v>2.275670054910138</v>
+      </c>
+      <c r="K23" s="9" t="n">
+        <v>8.957235748431614</v>
+      </c>
     </row>
     <row r="24">
-      <c r="A24" s="11" t="n"/>
-      <c r="C24" s="12" t="n"/>
-      <c r="D24" s="13" t="n"/>
-      <c r="E24" s="12" t="n"/>
-      <c r="F24" s="13" t="n"/>
-      <c r="G24" s="12" t="n"/>
-      <c r="H24" s="13" t="n"/>
-      <c r="I24" s="12" t="n"/>
-      <c r="J24" s="13" t="n"/>
-      <c r="K24" s="13" t="n"/>
+      <c r="A24" s="11" t="inlineStr">
+        <is>
+          <t>845</t>
+        </is>
+      </c>
+      <c r="B24" s="1" t="inlineStr">
+        <is>
+          <t>ARTICLES OF APPAREL, OF TEXTILE FABRICS, WHETHER OR NOT KNITTED OR CROCHETED, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C24" s="8" t="n">
+        <v>213.342954</v>
+      </c>
+      <c r="D24" s="9" t="n">
+        <v>5.060586382799499</v>
+      </c>
+      <c r="E24" s="8" t="n">
+        <v>200.971444</v>
+      </c>
+      <c r="F24" s="9" t="n">
+        <v>4.819670882635705</v>
+      </c>
+      <c r="G24" s="8" t="n">
+        <v>172.762597</v>
+      </c>
+      <c r="H24" s="9" t="n">
+        <v>3.338348101820528</v>
+      </c>
+      <c r="I24" s="8" t="n">
+        <v>72.089782</v>
+      </c>
+      <c r="J24" s="9" t="n">
+        <v>2.271620545813785</v>
+      </c>
+      <c r="K24" s="9" t="n">
+        <v>-37.09001913162096</v>
+      </c>
     </row>
     <row r="25">
-      <c r="A25" s="11" t="n"/>
-      <c r="C25" s="12" t="n"/>
-      <c r="D25" s="13" t="n"/>
-      <c r="E25" s="12" t="n"/>
-      <c r="F25" s="13" t="n"/>
-      <c r="G25" s="12" t="n"/>
-      <c r="H25" s="13" t="n"/>
-      <c r="I25" s="12" t="n"/>
-      <c r="J25" s="13" t="n"/>
-      <c r="K25" s="13" t="n"/>
+      <c r="A25" s="11" t="inlineStr">
+        <is>
+          <t>745</t>
+        </is>
+      </c>
+      <c r="B25" s="1" t="inlineStr">
+        <is>
+          <t>OTHER NON-ELECTRICAL MACHINERY, TOOLS AND MECHANICAL APPARATUS, AND PARTS THEREOF, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C25" s="8" t="n">
+        <v>26.110838</v>
+      </c>
+      <c r="D25" s="9" t="n">
+        <v>0.6193602776601833</v>
+      </c>
+      <c r="E25" s="8" t="n">
+        <v>75.029933</v>
+      </c>
+      <c r="F25" s="9" t="n">
+        <v>1.799358039175992</v>
+      </c>
+      <c r="G25" s="8" t="n">
+        <v>97.759823</v>
+      </c>
+      <c r="H25" s="9" t="n">
+        <v>1.889044997085572</v>
+      </c>
+      <c r="I25" s="8" t="n">
+        <v>53.03042</v>
+      </c>
+      <c r="J25" s="9" t="n">
+        <v>1.67104114179641</v>
+      </c>
+      <c r="K25" s="9" t="n">
+        <v>4.867122859097694</v>
+      </c>
     </row>
     <row r="26">
-      <c r="A26" s="11" t="n"/>
-      <c r="C26" s="12" t="n"/>
-      <c r="D26" s="13" t="n"/>
-      <c r="E26" s="12" t="n"/>
-      <c r="F26" s="13" t="n"/>
-      <c r="G26" s="12" t="n"/>
-      <c r="H26" s="13" t="n"/>
-      <c r="I26" s="12" t="n"/>
-      <c r="J26" s="13" t="n"/>
-      <c r="K26" s="13" t="n"/>
+      <c r="A26" s="11" t="inlineStr">
+        <is>
+          <t>778</t>
+        </is>
+      </c>
+      <c r="B26" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL MACHINERY AND APPARATUS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C26" s="8" t="n">
+        <v>88.116866</v>
+      </c>
+      <c r="D26" s="9" t="n">
+        <v>2.090169859439408</v>
+      </c>
+      <c r="E26" s="8" t="n">
+        <v>92.280976</v>
+      </c>
+      <c r="F26" s="9" t="n">
+        <v>2.21307029593918</v>
+      </c>
+      <c r="G26" s="8" t="n">
+        <v>95.80241100000001</v>
+      </c>
+      <c r="H26" s="9" t="n">
+        <v>1.851221285540643</v>
+      </c>
+      <c r="I26" s="8" t="n">
+        <v>52.283237</v>
+      </c>
+      <c r="J26" s="9" t="n">
+        <v>1.64749666424087</v>
+      </c>
+      <c r="K26" s="9" t="n">
+        <v>8.923945959400958</v>
+      </c>
     </row>
     <row r="27">
-      <c r="A27" s="11" t="n"/>
-      <c r="C27" s="12" t="n"/>
-      <c r="D27" s="13" t="n"/>
-      <c r="E27" s="12" t="n"/>
-      <c r="F27" s="13" t="n"/>
-      <c r="G27" s="12" t="n"/>
-      <c r="H27" s="13" t="n"/>
-      <c r="I27" s="12" t="n"/>
-      <c r="J27" s="13" t="n"/>
-      <c r="K27" s="13" t="n"/>
+      <c r="A27" s="11" t="inlineStr">
+        <is>
+          <t>885</t>
+        </is>
+      </c>
+      <c r="B27" s="1" t="inlineStr">
+        <is>
+          <t>WATCHES AND CLOCKS</t>
+        </is>
+      </c>
+      <c r="C27" s="8" t="n">
+        <v>51.887636</v>
+      </c>
+      <c r="D27" s="9" t="n">
+        <v>1.230796983233189</v>
+      </c>
+      <c r="E27" s="8" t="n">
+        <v>71.482465</v>
+      </c>
+      <c r="F27" s="9" t="n">
+        <v>1.714283125614233</v>
+      </c>
+      <c r="G27" s="8" t="n">
+        <v>86.71301099999999</v>
+      </c>
+      <c r="H27" s="9" t="n">
+        <v>1.67558383991526</v>
+      </c>
+      <c r="I27" s="8" t="n">
+        <v>50.700363</v>
+      </c>
+      <c r="J27" s="9" t="n">
+        <v>1.597618734247484</v>
+      </c>
+      <c r="K27" s="9" t="n">
+        <v>3.375700143617788</v>
+      </c>
     </row>
     <row r="28">
-      <c r="A28" s="11" t="n"/>
-      <c r="C28" s="12" t="n"/>
-      <c r="D28" s="13" t="n"/>
-      <c r="E28" s="12" t="n"/>
-      <c r="F28" s="13" t="n"/>
-      <c r="G28" s="12" t="n"/>
-      <c r="H28" s="13" t="n"/>
-      <c r="I28" s="12" t="n"/>
-      <c r="J28" s="13" t="n"/>
-      <c r="K28" s="13" t="n"/>
+      <c r="A28" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B28" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C28" s="8" t="n">
+        <v>1543.126124</v>
+      </c>
+      <c r="D28" s="9" t="n">
+        <v>36.60361358855362</v>
+      </c>
+      <c r="E28" s="8" t="n">
+        <v>1494.413438</v>
+      </c>
+      <c r="F28" s="9" t="n">
+        <v>35.83882759855235</v>
+      </c>
+      <c r="G28" s="8" t="n">
+        <v>1518.497574</v>
+      </c>
+      <c r="H28" s="9" t="n">
+        <v>29.34242470192768</v>
+      </c>
+      <c r="I28" s="8" t="n">
+        <v>822.6491559999999</v>
+      </c>
+      <c r="J28" s="9" t="n">
+        <v>25.92249099554732</v>
+      </c>
+      <c r="K28" s="9" t="n">
+        <v>-0.7149710964286959</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="11" t="n"/>
@@ -971,136 +1268,447 @@
       <c r="K30" s="13" t="n"/>
     </row>
     <row r="31">
-      <c r="A31" s="11" t="n"/>
-      <c r="C31" s="12" t="n"/>
-      <c r="D31" s="13" t="n"/>
-      <c r="E31" s="12" t="n"/>
-      <c r="F31" s="13" t="n"/>
-      <c r="G31" s="12" t="n"/>
-      <c r="H31" s="13" t="n"/>
-      <c r="I31" s="12" t="n"/>
-      <c r="J31" s="13" t="n"/>
-      <c r="K31" s="13" t="n"/>
+      <c r="A31" s="11" t="inlineStr">
+        <is>
+          <t>098</t>
+        </is>
+      </c>
+      <c r="B31" s="1" t="inlineStr">
+        <is>
+          <t>EDIBLE PRODUCTS AND PREPARATIONS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C31" s="8" t="n">
+        <v>10.956424</v>
+      </c>
+      <c r="D31" s="9" t="n">
+        <v>23.00326003374983</v>
+      </c>
+      <c r="E31" s="8" t="n">
+        <v>11.190167</v>
+      </c>
+      <c r="F31" s="9" t="n">
+        <v>21.07172905362044</v>
+      </c>
+      <c r="G31" s="8" t="n">
+        <v>11.827898</v>
+      </c>
+      <c r="H31" s="9" t="n">
+        <v>24.16066005171994</v>
+      </c>
+      <c r="I31" s="8" t="n">
+        <v>5.491149</v>
+      </c>
+      <c r="J31" s="9" t="n">
+        <v>19.29352954178742</v>
+      </c>
+      <c r="K31" s="9" t="n">
+        <v>-9.227979373109829</v>
+      </c>
     </row>
     <row r="32">
-      <c r="A32" s="11" t="n"/>
-      <c r="C32" s="12" t="n"/>
-      <c r="D32" s="13" t="n"/>
-      <c r="E32" s="12" t="n"/>
-      <c r="F32" s="13" t="n"/>
-      <c r="G32" s="12" t="n"/>
-      <c r="H32" s="13" t="n"/>
-      <c r="I32" s="12" t="n"/>
-      <c r="J32" s="13" t="n"/>
-      <c r="K32" s="13" t="n"/>
+      <c r="A32" s="11" t="inlineStr">
+        <is>
+          <t>898</t>
+        </is>
+      </c>
+      <c r="B32" s="1" t="inlineStr">
+        <is>
+          <t>MUSICAL INSTRUMENTS AND PARTS AND ACCESSORIES THEREOF; RECORDS, TAPES AND OTHER SOUND OR SIMILAR RECORDINGS (EXCLUDING GOODS OF GROUPS 763 AND 883)</t>
+        </is>
+      </c>
+      <c r="C32" s="8" t="n">
+        <v>1.18482</v>
+      </c>
+      <c r="D32" s="9" t="n">
+        <v>2.4875563918654</v>
+      </c>
+      <c r="E32" s="8" t="n">
+        <v>1.091407</v>
+      </c>
+      <c r="F32" s="9" t="n">
+        <v>2.055182249847096</v>
+      </c>
+      <c r="G32" s="8" t="n">
+        <v>5.308797</v>
+      </c>
+      <c r="H32" s="9" t="n">
+        <v>10.84419561282915</v>
+      </c>
+      <c r="I32" s="8" t="n">
+        <v>4.07784</v>
+      </c>
+      <c r="J32" s="9" t="n">
+        <v>14.32777120174346</v>
+      </c>
+      <c r="K32" s="9" t="n">
+        <v>17.22893052145347</v>
+      </c>
     </row>
     <row r="33">
-      <c r="A33" s="11" t="n"/>
-      <c r="C33" s="12" t="n"/>
-      <c r="D33" s="13" t="n"/>
-      <c r="E33" s="12" t="n"/>
-      <c r="F33" s="13" t="n"/>
-      <c r="G33" s="12" t="n"/>
-      <c r="H33" s="13" t="n"/>
-      <c r="I33" s="12" t="n"/>
-      <c r="J33" s="13" t="n"/>
-      <c r="K33" s="13" t="n"/>
+      <c r="A33" s="11" t="inlineStr">
+        <is>
+          <t>897</t>
+        </is>
+      </c>
+      <c r="B33" s="1" t="inlineStr">
+        <is>
+          <t>JEWELLERY, GOLDSMITHS' AND SILVERSMITHS' WARES, AND OTHER ARTICLES OF PRECIOUS OR SEMI-PRECIOUS MATERIALS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C33" s="8" t="n">
+        <v>10.67012</v>
+      </c>
+      <c r="D33" s="9" t="n">
+        <v>22.40215830925443</v>
+      </c>
+      <c r="E33" s="8" t="n">
+        <v>10.559733</v>
+      </c>
+      <c r="F33" s="9" t="n">
+        <v>19.88458551642478</v>
+      </c>
+      <c r="G33" s="8" t="n">
+        <v>4.832388</v>
+      </c>
+      <c r="H33" s="9" t="n">
+        <v>9.871042488361908</v>
+      </c>
+      <c r="I33" s="8" t="n">
+        <v>3.674891</v>
+      </c>
+      <c r="J33" s="9" t="n">
+        <v>12.91198218648751</v>
+      </c>
+      <c r="K33" s="9" t="n">
+        <v>5.824097567240605</v>
+      </c>
     </row>
     <row r="34">
-      <c r="A34" s="11" t="n"/>
-      <c r="C34" s="12" t="n"/>
-      <c r="D34" s="13" t="n"/>
-      <c r="E34" s="12" t="n"/>
-      <c r="F34" s="13" t="n"/>
-      <c r="G34" s="12" t="n"/>
-      <c r="H34" s="13" t="n"/>
-      <c r="I34" s="12" t="n"/>
-      <c r="J34" s="13" t="n"/>
-      <c r="K34" s="13" t="n"/>
+      <c r="A34" s="11" t="inlineStr">
+        <is>
+          <t>048</t>
+        </is>
+      </c>
+      <c r="B34" s="1" t="inlineStr">
+        <is>
+          <t>CEREAL PREPARATIONS AND PREPARATIONS OF FLOUR OR STARCH OF FRUITS OR VEGETABLES</t>
+        </is>
+      </c>
+      <c r="C34" s="8" t="n">
+        <v>2.626547</v>
+      </c>
+      <c r="D34" s="9" t="n">
+        <v>5.514494841735361</v>
+      </c>
+      <c r="E34" s="8" t="n">
+        <v>3.143747</v>
+      </c>
+      <c r="F34" s="9" t="n">
+        <v>5.919856691784144</v>
+      </c>
+      <c r="G34" s="8" t="n">
+        <v>3.116065</v>
+      </c>
+      <c r="H34" s="9" t="n">
+        <v>6.365136659452316</v>
+      </c>
+      <c r="I34" s="8" t="n">
+        <v>3.016585</v>
+      </c>
+      <c r="J34" s="9" t="n">
+        <v>10.59897879529636</v>
+      </c>
+      <c r="K34" s="9" t="n">
+        <v>6.563362170984077</v>
+      </c>
     </row>
     <row r="35">
-      <c r="A35" s="11" t="n"/>
-      <c r="C35" s="12" t="n"/>
-      <c r="D35" s="13" t="n"/>
-      <c r="E35" s="12" t="n"/>
-      <c r="F35" s="13" t="n"/>
-      <c r="G35" s="12" t="n"/>
-      <c r="H35" s="13" t="n"/>
-      <c r="I35" s="12" t="n"/>
-      <c r="J35" s="13" t="n"/>
-      <c r="K35" s="13" t="n"/>
+      <c r="A35" s="11" t="inlineStr">
+        <is>
+          <t>334</t>
+        </is>
+      </c>
+      <c r="B35" s="1" t="inlineStr">
+        <is>
+          <t>PETROLEUM OILS AND OILS OBTAINED FROM BITUMINOUS MINERALS; PREPARATIONS, N.E.S., CONTAINING BY WEIGHT 70% OR MORE OF PETROLEUM OILS OR OF OILS FROM BITUMINOUS MINERALS</t>
+        </is>
+      </c>
+      <c r="C35" s="8" t="n">
+        <v>3.606739</v>
+      </c>
+      <c r="D35" s="9" t="n">
+        <v>7.57243011870176</v>
+      </c>
+      <c r="E35" s="8" t="n">
+        <v>5.929744</v>
+      </c>
+      <c r="F35" s="9" t="n">
+        <v>11.16604952592142</v>
+      </c>
+      <c r="G35" s="8" t="n">
+        <v>4.877939</v>
+      </c>
+      <c r="H35" s="9" t="n">
+        <v>9.964088795154199</v>
+      </c>
+      <c r="I35" s="8" t="n">
+        <v>2.04455</v>
+      </c>
+      <c r="J35" s="9" t="n">
+        <v>7.183666992948373</v>
+      </c>
+      <c r="K35" s="9" t="n">
+        <v>-11.14886123829688</v>
+      </c>
     </row>
     <row r="36">
-      <c r="A36" s="11" t="n"/>
-      <c r="C36" s="12" t="n"/>
-      <c r="D36" s="13" t="n"/>
-      <c r="E36" s="12" t="n"/>
-      <c r="F36" s="13" t="n"/>
-      <c r="G36" s="12" t="n"/>
-      <c r="H36" s="13" t="n"/>
-      <c r="I36" s="12" t="n"/>
-      <c r="J36" s="13" t="n"/>
-      <c r="K36" s="13" t="n"/>
+      <c r="A36" s="11" t="inlineStr">
+        <is>
+          <t>778</t>
+        </is>
+      </c>
+      <c r="B36" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL MACHINERY AND APPARATUS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C36" s="8" t="n">
+        <v>6.085787</v>
+      </c>
+      <c r="D36" s="9" t="n">
+        <v>12.77724747335575</v>
+      </c>
+      <c r="E36" s="8" t="n">
+        <v>6.27706</v>
+      </c>
+      <c r="F36" s="9" t="n">
+        <v>11.82006556053352</v>
+      </c>
+      <c r="G36" s="8" t="n">
+        <v>2.998719</v>
+      </c>
+      <c r="H36" s="9" t="n">
+        <v>6.125435842415413</v>
+      </c>
+      <c r="I36" s="8" t="n">
+        <v>2.011024</v>
+      </c>
+      <c r="J36" s="9" t="n">
+        <v>7.065871086951655</v>
+      </c>
+      <c r="K36" s="9" t="n">
+        <v>-18.82400762423593</v>
+      </c>
     </row>
     <row r="37">
-      <c r="A37" s="11" t="n"/>
-      <c r="C37" s="12" t="n"/>
-      <c r="D37" s="13" t="n"/>
-      <c r="E37" s="12" t="n"/>
-      <c r="F37" s="13" t="n"/>
-      <c r="G37" s="12" t="n"/>
-      <c r="H37" s="13" t="n"/>
-      <c r="I37" s="12" t="n"/>
-      <c r="J37" s="13" t="n"/>
-      <c r="K37" s="13" t="n"/>
+      <c r="A37" s="11" t="inlineStr">
+        <is>
+          <t>899</t>
+        </is>
+      </c>
+      <c r="B37" s="1" t="inlineStr">
+        <is>
+          <t>MISCELLANEOUS MANUFACTURED ARTICLES, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C37" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D37" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E37" s="8" t="n">
+        <v>2.535429</v>
+      </c>
+      <c r="F37" s="9" t="n">
+        <v>4.774358856547165</v>
+      </c>
+      <c r="G37" s="8" t="n">
+        <v>3.63682</v>
+      </c>
+      <c r="H37" s="9" t="n">
+        <v>7.428874656282641</v>
+      </c>
+      <c r="I37" s="8" t="n">
+        <v>1.762927</v>
+      </c>
+      <c r="J37" s="9" t="n">
+        <v>6.194165220159691</v>
+      </c>
+      <c r="K37" s="9" t="n">
+        <v>-5.686439095686491</v>
+      </c>
     </row>
     <row r="38">
-      <c r="A38" s="11" t="n"/>
-      <c r="C38" s="12" t="n"/>
-      <c r="D38" s="13" t="n"/>
-      <c r="E38" s="12" t="n"/>
-      <c r="F38" s="13" t="n"/>
-      <c r="G38" s="12" t="n"/>
-      <c r="H38" s="13" t="n"/>
-      <c r="I38" s="12" t="n"/>
-      <c r="J38" s="13" t="n"/>
-      <c r="K38" s="13" t="n"/>
+      <c r="A38" s="11" t="inlineStr">
+        <is>
+          <t>583</t>
+        </is>
+      </c>
+      <c r="B38" s="1" t="inlineStr">
+        <is>
+          <t>MONOFILAMENT OF WHICH ANY CROSS-SECTIONAL DIMENSION EXCEEDING 1 MM, RODS, STICKS AND PROFILE SHAPES, WHETHER OR NOT SURFACE-WORKED BUT NOT OTHERWISE WORKED, OF PLASTICS</t>
+        </is>
+      </c>
+      <c r="C38" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E38" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G38" s="8" t="n">
+        <v>1.717021</v>
+      </c>
+      <c r="H38" s="9" t="n">
+        <v>3.507331622462777</v>
+      </c>
+      <c r="I38" s="8" t="n">
+        <v>1.745276</v>
+      </c>
+      <c r="J38" s="9" t="n">
+        <v>6.132147218109102</v>
+      </c>
+      <c r="K38" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="39">
-      <c r="A39" s="11" t="n"/>
-      <c r="C39" s="12" t="n"/>
-      <c r="D39" s="13" t="n"/>
-      <c r="E39" s="12" t="n"/>
-      <c r="F39" s="13" t="n"/>
-      <c r="G39" s="12" t="n"/>
-      <c r="H39" s="13" t="n"/>
-      <c r="I39" s="12" t="n"/>
-      <c r="J39" s="13" t="n"/>
-      <c r="K39" s="13" t="n"/>
+      <c r="A39" s="11" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="B39" s="1" t="inlineStr">
+        <is>
+          <t>NON-ALCOHOLIC BEVERAGES, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C39" s="8" t="n">
+        <v>1.179652</v>
+      </c>
+      <c r="D39" s="9" t="n">
+        <v>2.476706058959844</v>
+      </c>
+      <c r="E39" s="8" t="n">
+        <v>1.899906</v>
+      </c>
+      <c r="F39" s="9" t="n">
+        <v>3.577632439207369</v>
+      </c>
+      <c r="G39" s="8" t="n">
+        <v>2.112298</v>
+      </c>
+      <c r="H39" s="9" t="n">
+        <v>4.314757694556373</v>
+      </c>
+      <c r="I39" s="8" t="n">
+        <v>1.433577</v>
+      </c>
+      <c r="J39" s="9" t="n">
+        <v>5.03697135151987</v>
+      </c>
+      <c r="K39" s="9" t="n">
+        <v>27.63657537454225</v>
+      </c>
     </row>
     <row r="40">
-      <c r="A40" s="11" t="n"/>
-      <c r="C40" s="12" t="n"/>
-      <c r="D40" s="13" t="n"/>
-      <c r="E40" s="12" t="n"/>
-      <c r="F40" s="13" t="n"/>
-      <c r="G40" s="12" t="n"/>
-      <c r="H40" s="13" t="n"/>
-      <c r="I40" s="12" t="n"/>
-      <c r="J40" s="13" t="n"/>
-      <c r="K40" s="13" t="n"/>
+      <c r="A40" s="11" t="inlineStr">
+        <is>
+          <t>551</t>
+        </is>
+      </c>
+      <c r="B40" s="1" t="inlineStr">
+        <is>
+          <t>ESSENTIAL OILS, PERFUME AND FLAVOUR MATERIALS</t>
+        </is>
+      </c>
+      <c r="C40" s="8" t="n">
+        <v>2.133603</v>
+      </c>
+      <c r="D40" s="9" t="n">
+        <v>4.479547762827427</v>
+      </c>
+      <c r="E40" s="8" t="n">
+        <v>1.364818</v>
+      </c>
+      <c r="F40" s="9" t="n">
+        <v>2.570030912273618</v>
+      </c>
+      <c r="G40" s="8" t="n">
+        <v>2.197093</v>
+      </c>
+      <c r="H40" s="9" t="n">
+        <v>4.487967099057967</v>
+      </c>
+      <c r="I40" s="8" t="n">
+        <v>0.690114</v>
+      </c>
+      <c r="J40" s="9" t="n">
+        <v>2.424762986071054</v>
+      </c>
+      <c r="K40" s="9" t="n">
+        <v>-51.41489542199753</v>
+      </c>
     </row>
     <row r="41">
-      <c r="A41" s="11" t="n"/>
-      <c r="C41" s="12" t="n"/>
-      <c r="D41" s="13" t="n"/>
-      <c r="E41" s="12" t="n"/>
-      <c r="F41" s="13" t="n"/>
-      <c r="G41" s="12" t="n"/>
-      <c r="H41" s="13" t="n"/>
-      <c r="I41" s="12" t="n"/>
-      <c r="J41" s="13" t="n"/>
-      <c r="K41" s="13" t="n"/>
+      <c r="A41" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B41" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C41" s="8" t="n">
+        <v>9.186183</v>
+      </c>
+      <c r="D41" s="9" t="n">
+        <v>19.2865990095502</v>
+      </c>
+      <c r="E41" s="8" t="n">
+        <v>9.113109</v>
+      </c>
+      <c r="F41" s="9" t="n">
+        <v>17.16050919384044</v>
+      </c>
+      <c r="G41" s="8" t="n">
+        <v>6.330156</v>
+      </c>
+      <c r="H41" s="9" t="n">
+        <v>12.93050947770731</v>
+      </c>
+      <c r="I41" s="8" t="n">
+        <v>2.513158</v>
+      </c>
+      <c r="J41" s="9" t="n">
+        <v>8.830153418925509</v>
+      </c>
+      <c r="K41" s="9" t="n">
+        <v>-30.38299135977874</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="11" t="n"/>
@@ -1132,136 +1740,433 @@
       <c r="K43" s="13" t="n"/>
     </row>
     <row r="44">
-      <c r="A44" s="11" t="n"/>
-      <c r="C44" s="12" t="n"/>
-      <c r="D44" s="13" t="n"/>
-      <c r="E44" s="12" t="n"/>
-      <c r="F44" s="13" t="n"/>
-      <c r="G44" s="12" t="n"/>
-      <c r="H44" s="13" t="n"/>
-      <c r="I44" s="12" t="n"/>
-      <c r="J44" s="13" t="n"/>
-      <c r="K44" s="13" t="n"/>
+      <c r="A44" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B44" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C44" s="8" t="n">
+        <v>1605.613541</v>
+      </c>
+      <c r="D44" s="9" t="n">
+        <v>38.52105319349614</v>
+      </c>
+      <c r="E44" s="8" t="n">
+        <v>1376.719671</v>
+      </c>
+      <c r="F44" s="9" t="n">
+        <v>33.44221779575776</v>
+      </c>
+      <c r="G44" s="8" t="n">
+        <v>1560.977445</v>
+      </c>
+      <c r="H44" s="9" t="n">
+        <v>30.4513398613323</v>
+      </c>
+      <c r="I44" s="8" t="n">
+        <v>898.493651</v>
+      </c>
+      <c r="J44" s="9" t="n">
+        <v>28.56864047135491</v>
+      </c>
+      <c r="K44" s="9" t="n">
+        <v>15.54039772274427</v>
+      </c>
     </row>
     <row r="45">
-      <c r="A45" s="11" t="n"/>
-      <c r="C45" s="12" t="n"/>
-      <c r="D45" s="13" t="n"/>
-      <c r="E45" s="12" t="n"/>
-      <c r="F45" s="13" t="n"/>
-      <c r="G45" s="12" t="n"/>
-      <c r="H45" s="13" t="n"/>
-      <c r="I45" s="12" t="n"/>
-      <c r="J45" s="13" t="n"/>
-      <c r="K45" s="13" t="n"/>
+      <c r="A45" s="11" t="inlineStr">
+        <is>
+          <t>714</t>
+        </is>
+      </c>
+      <c r="B45" s="1" t="inlineStr">
+        <is>
+          <t>ENGINES AND MOTORS, NON-ELECTRIC (OTHER THAN THOSE OF GROUPS 712, 713 AND 718); PARTS, N.E.S. OF THESE ENGINES AND MOTORS</t>
+        </is>
+      </c>
+      <c r="C45" s="8" t="n">
+        <v>3.749079</v>
+      </c>
+      <c r="D45" s="9" t="n">
+        <v>0.08994597261285761</v>
+      </c>
+      <c r="E45" s="8" t="n">
+        <v>15.037237</v>
+      </c>
+      <c r="F45" s="9" t="n">
+        <v>0.3652730220925469</v>
+      </c>
+      <c r="G45" s="8" t="n">
+        <v>647.181345</v>
+      </c>
+      <c r="H45" s="9" t="n">
+        <v>12.62512738517445</v>
+      </c>
+      <c r="I45" s="8" t="n">
+        <v>664.87131</v>
+      </c>
+      <c r="J45" s="9" t="n">
+        <v>21.14034906531437</v>
+      </c>
+      <c r="K45" s="9" t="n">
+        <v>176.4283276998878</v>
+      </c>
     </row>
     <row r="46">
-      <c r="A46" s="11" t="n"/>
-      <c r="C46" s="12" t="n"/>
-      <c r="D46" s="13" t="n"/>
-      <c r="E46" s="12" t="n"/>
-      <c r="F46" s="13" t="n"/>
-      <c r="G46" s="12" t="n"/>
-      <c r="H46" s="13" t="n"/>
-      <c r="I46" s="12" t="n"/>
-      <c r="J46" s="13" t="n"/>
-      <c r="K46" s="13" t="n"/>
+      <c r="A46" s="11" t="inlineStr">
+        <is>
+          <t>752</t>
+        </is>
+      </c>
+      <c r="B46" s="1" t="inlineStr">
+        <is>
+          <t>AUTOMATIC DATA PROCESSING MACHINES &amp; UNITS THEREOF; MAGNETIC OR OPTICAL READERS, MACHINES FOR TRANSCRIBING DATA ONTO DATA MEDIA IN CODED FORM AND FOR PROCESSING SUCH DATA, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C46" s="8" t="n">
+        <v>357.615669</v>
+      </c>
+      <c r="D46" s="9" t="n">
+        <v>8.579730960537976</v>
+      </c>
+      <c r="E46" s="8" t="n">
+        <v>514.455768</v>
+      </c>
+      <c r="F46" s="9" t="n">
+        <v>12.49676473878161</v>
+      </c>
+      <c r="G46" s="8" t="n">
+        <v>520.769628</v>
+      </c>
+      <c r="H46" s="9" t="n">
+        <v>10.1591044652715</v>
+      </c>
+      <c r="I46" s="8" t="n">
+        <v>286.122217</v>
+      </c>
+      <c r="J46" s="9" t="n">
+        <v>9.097585430061086</v>
+      </c>
+      <c r="K46" s="9" t="n">
+        <v>-7.370604881029497</v>
+      </c>
     </row>
     <row r="47">
-      <c r="A47" s="11" t="n"/>
-      <c r="C47" s="12" t="n"/>
-      <c r="D47" s="13" t="n"/>
-      <c r="E47" s="12" t="n"/>
-      <c r="F47" s="13" t="n"/>
-      <c r="G47" s="12" t="n"/>
-      <c r="H47" s="13" t="n"/>
-      <c r="I47" s="12" t="n"/>
-      <c r="J47" s="13" t="n"/>
-      <c r="K47" s="13" t="n"/>
+      <c r="A47" s="11" t="inlineStr">
+        <is>
+          <t>884</t>
+        </is>
+      </c>
+      <c r="B47" s="1" t="inlineStr">
+        <is>
+          <t>OPTICAL GOODS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C47" s="8" t="n">
+        <v>97.19162300000001</v>
+      </c>
+      <c r="D47" s="9" t="n">
+        <v>2.331771365862704</v>
+      </c>
+      <c r="E47" s="8" t="n">
+        <v>130.374512</v>
+      </c>
+      <c r="F47" s="9" t="n">
+        <v>3.166957600128337</v>
+      </c>
+      <c r="G47" s="8" t="n">
+        <v>183.769854</v>
+      </c>
+      <c r="H47" s="9" t="n">
+        <v>3.584957808548871</v>
+      </c>
+      <c r="I47" s="8" t="n">
+        <v>112.048885</v>
+      </c>
+      <c r="J47" s="9" t="n">
+        <v>3.562723350597378</v>
+      </c>
+      <c r="K47" s="9" t="n">
+        <v>9.329451554398771</v>
+      </c>
     </row>
     <row r="48">
-      <c r="A48" s="11" t="n"/>
-      <c r="C48" s="12" t="n"/>
-      <c r="D48" s="13" t="n"/>
-      <c r="E48" s="12" t="n"/>
-      <c r="F48" s="13" t="n"/>
-      <c r="G48" s="12" t="n"/>
-      <c r="H48" s="13" t="n"/>
-      <c r="I48" s="12" t="n"/>
-      <c r="J48" s="13" t="n"/>
-      <c r="K48" s="13" t="n"/>
+      <c r="A48" s="11" t="inlineStr">
+        <is>
+          <t>831</t>
+        </is>
+      </c>
+      <c r="B48" s="1" t="inlineStr">
+        <is>
+          <t>TRAVEL GOODS, HANDBAGS AND SIMILAR CONTAINERS</t>
+        </is>
+      </c>
+      <c r="C48" s="8" t="n">
+        <v>100.539589</v>
+      </c>
+      <c r="D48" s="9" t="n">
+        <v>2.412094041950559</v>
+      </c>
+      <c r="E48" s="8" t="n">
+        <v>98.49408699999999</v>
+      </c>
+      <c r="F48" s="9" t="n">
+        <v>2.392542780082287</v>
+      </c>
+      <c r="G48" s="8" t="n">
+        <v>175.622375</v>
+      </c>
+      <c r="H48" s="9" t="n">
+        <v>3.426017874575598</v>
+      </c>
+      <c r="I48" s="8" t="n">
+        <v>88.98845900000001</v>
+      </c>
+      <c r="J48" s="9" t="n">
+        <v>2.829490546139548</v>
+      </c>
+      <c r="K48" s="9" t="n">
+        <v>-6.692051048458103</v>
+      </c>
     </row>
     <row r="49">
-      <c r="A49" s="11" t="n"/>
-      <c r="C49" s="12" t="n"/>
-      <c r="D49" s="13" t="n"/>
-      <c r="E49" s="12" t="n"/>
-      <c r="F49" s="13" t="n"/>
-      <c r="G49" s="12" t="n"/>
-      <c r="H49" s="13" t="n"/>
-      <c r="I49" s="12" t="n"/>
-      <c r="J49" s="13" t="n"/>
-      <c r="K49" s="13" t="n"/>
+      <c r="A49" s="11" t="inlineStr">
+        <is>
+          <t>845</t>
+        </is>
+      </c>
+      <c r="B49" s="1" t="inlineStr">
+        <is>
+          <t>ARTICLES OF APPAREL, OF TEXTILE FABRICS, WHETHER OR NOT KNITTED OR CROCHETED, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C49" s="8" t="n">
+        <v>213.324264</v>
+      </c>
+      <c r="D49" s="9" t="n">
+        <v>5.117965881060924</v>
+      </c>
+      <c r="E49" s="8" t="n">
+        <v>200.904459</v>
+      </c>
+      <c r="F49" s="9" t="n">
+        <v>4.880216950148367</v>
+      </c>
+      <c r="G49" s="8" t="n">
+        <v>172.721639</v>
+      </c>
+      <c r="H49" s="9" t="n">
+        <v>3.369430703462437</v>
+      </c>
+      <c r="I49" s="8" t="n">
+        <v>72.052342</v>
+      </c>
+      <c r="J49" s="9" t="n">
+        <v>2.290987199994254</v>
+      </c>
+      <c r="K49" s="9" t="n">
+        <v>-37.12269158003691</v>
+      </c>
     </row>
     <row r="50">
-      <c r="A50" s="11" t="n"/>
-      <c r="C50" s="12" t="n"/>
-      <c r="D50" s="13" t="n"/>
-      <c r="E50" s="12" t="n"/>
-      <c r="F50" s="13" t="n"/>
-      <c r="G50" s="12" t="n"/>
-      <c r="H50" s="13" t="n"/>
-      <c r="I50" s="12" t="n"/>
-      <c r="J50" s="13" t="n"/>
-      <c r="K50" s="13" t="n"/>
+      <c r="A50" s="11" t="inlineStr">
+        <is>
+          <t>897</t>
+        </is>
+      </c>
+      <c r="B50" s="1" t="inlineStr">
+        <is>
+          <t>JEWELLERY, GOLDSMITHS' AND SILVERSMITHS' WARES, AND OTHER ARTICLES OF PRECIOUS OR SEMI-PRECIOUS MATERIALS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C50" s="8" t="n">
+        <v>116.560725</v>
+      </c>
+      <c r="D50" s="9" t="n">
+        <v>2.796464886065305</v>
+      </c>
+      <c r="E50" s="8" t="n">
+        <v>89.683635</v>
+      </c>
+      <c r="F50" s="9" t="n">
+        <v>2.178526040967161</v>
+      </c>
+      <c r="G50" s="8" t="n">
+        <v>110.403892</v>
+      </c>
+      <c r="H50" s="9" t="n">
+        <v>2.153744404235018</v>
+      </c>
+      <c r="I50" s="8" t="n">
+        <v>68.543402</v>
+      </c>
+      <c r="J50" s="9" t="n">
+        <v>2.179416411281407</v>
+      </c>
+      <c r="K50" s="9" t="n">
+        <v>9.130464424040262</v>
+      </c>
     </row>
     <row r="51">
-      <c r="A51" s="11" t="n"/>
-      <c r="C51" s="12" t="n"/>
-      <c r="D51" s="13" t="n"/>
-      <c r="E51" s="12" t="n"/>
-      <c r="F51" s="13" t="n"/>
-      <c r="G51" s="12" t="n"/>
-      <c r="H51" s="13" t="n"/>
-      <c r="I51" s="12" t="n"/>
-      <c r="J51" s="13" t="n"/>
-      <c r="K51" s="13" t="n"/>
+      <c r="A51" s="11" t="inlineStr">
+        <is>
+          <t>745</t>
+        </is>
+      </c>
+      <c r="B51" s="1" t="inlineStr">
+        <is>
+          <t>OTHER NON-ELECTRICAL MACHINERY, TOOLS AND MECHANICAL APPARATUS, AND PARTS THEREOF, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C51" s="8" t="n">
+        <v>26.110838</v>
+      </c>
+      <c r="D51" s="9" t="n">
+        <v>0.6264377783575011</v>
+      </c>
+      <c r="E51" s="8" t="n">
+        <v>75.029933</v>
+      </c>
+      <c r="F51" s="9" t="n">
+        <v>1.822569556781696</v>
+      </c>
+      <c r="G51" s="8" t="n">
+        <v>97.759823</v>
+      </c>
+      <c r="H51" s="9" t="n">
+        <v>1.907085592102639</v>
+      </c>
+      <c r="I51" s="8" t="n">
+        <v>53.03042</v>
+      </c>
+      <c r="J51" s="9" t="n">
+        <v>1.686163281553281</v>
+      </c>
+      <c r="K51" s="9" t="n">
+        <v>4.867122859097694</v>
+      </c>
     </row>
     <row r="52">
-      <c r="A52" s="11" t="n"/>
-      <c r="C52" s="12" t="n"/>
-      <c r="D52" s="13" t="n"/>
-      <c r="E52" s="12" t="n"/>
-      <c r="F52" s="13" t="n"/>
-      <c r="G52" s="12" t="n"/>
-      <c r="H52" s="13" t="n"/>
-      <c r="I52" s="12" t="n"/>
-      <c r="J52" s="13" t="n"/>
-      <c r="K52" s="13" t="n"/>
+      <c r="A52" s="11" t="inlineStr">
+        <is>
+          <t>885</t>
+        </is>
+      </c>
+      <c r="B52" s="1" t="inlineStr">
+        <is>
+          <t>WATCHES AND CLOCKS</t>
+        </is>
+      </c>
+      <c r="C52" s="8" t="n">
+        <v>51.887636</v>
+      </c>
+      <c r="D52" s="9" t="n">
+        <v>1.244861441063772</v>
+      </c>
+      <c r="E52" s="8" t="n">
+        <v>71.482465</v>
+      </c>
+      <c r="F52" s="9" t="n">
+        <v>1.736397186343124</v>
+      </c>
+      <c r="G52" s="8" t="n">
+        <v>86.71301099999999</v>
+      </c>
+      <c r="H52" s="9" t="n">
+        <v>1.691585856553133</v>
+      </c>
+      <c r="I52" s="8" t="n">
+        <v>50.700363</v>
+      </c>
+      <c r="J52" s="9" t="n">
+        <v>1.612076435600973</v>
+      </c>
+      <c r="K52" s="9" t="n">
+        <v>3.375700143617788</v>
+      </c>
     </row>
     <row r="53">
-      <c r="A53" s="11" t="n"/>
-      <c r="C53" s="12" t="n"/>
-      <c r="D53" s="13" t="n"/>
-      <c r="E53" s="12" t="n"/>
-      <c r="F53" s="13" t="n"/>
-      <c r="G53" s="12" t="n"/>
-      <c r="H53" s="13" t="n"/>
-      <c r="I53" s="12" t="n"/>
-      <c r="J53" s="13" t="n"/>
-      <c r="K53" s="13" t="n"/>
+      <c r="A53" s="11" t="inlineStr">
+        <is>
+          <t>778</t>
+        </is>
+      </c>
+      <c r="B53" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL MACHINERY AND APPARATUS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C53" s="8" t="n">
+        <v>82.03107900000001</v>
+      </c>
+      <c r="D53" s="9" t="n">
+        <v>1.968047401811794</v>
+      </c>
+      <c r="E53" s="8" t="n">
+        <v>86.003916</v>
+      </c>
+      <c r="F53" s="9" t="n">
+        <v>2.089141130721924</v>
+      </c>
+      <c r="G53" s="8" t="n">
+        <v>92.803692</v>
+      </c>
+      <c r="H53" s="9" t="n">
+        <v>1.810402049389257</v>
+      </c>
+      <c r="I53" s="8" t="n">
+        <v>50.272213</v>
+      </c>
+      <c r="J53" s="9" t="n">
+        <v>1.598462913230284</v>
+      </c>
+      <c r="K53" s="9" t="n">
+        <v>10.43401027990594</v>
+      </c>
     </row>
     <row r="54">
-      <c r="A54" s="11" t="n"/>
-      <c r="C54" s="12" t="n"/>
-      <c r="D54" s="13" t="n"/>
-      <c r="E54" s="12" t="n"/>
-      <c r="F54" s="13" t="n"/>
-      <c r="G54" s="12" t="n"/>
-      <c r="H54" s="13" t="n"/>
-      <c r="I54" s="12" t="n"/>
-      <c r="J54" s="13" t="n"/>
-      <c r="K54" s="13" t="n"/>
+      <c r="A54" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B54" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C54" s="8" t="n">
+        <v>1513.521446</v>
+      </c>
+      <c r="D54" s="9" t="n">
+        <v>36.31162707718046</v>
+      </c>
+      <c r="E54" s="8" t="n">
+        <v>1458.525952</v>
+      </c>
+      <c r="F54" s="9" t="n">
+        <v>35.42939319819519</v>
+      </c>
+      <c r="G54" s="8" t="n">
+        <v>1477.414445</v>
+      </c>
+      <c r="H54" s="9" t="n">
+        <v>28.8212039993548</v>
+      </c>
+      <c r="I54" s="8" t="n">
+        <v>799.91142</v>
+      </c>
+      <c r="J54" s="9" t="n">
+        <v>25.4341048948725</v>
+      </c>
+      <c r="K54" s="9" t="n">
+        <v>-0.7419377766258561</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="11" t="n"/>
@@ -1293,136 +2198,433 @@
       <c r="K56" s="13" t="n"/>
     </row>
     <row r="57">
-      <c r="A57" s="11" t="n"/>
-      <c r="C57" s="12" t="n"/>
-      <c r="D57" s="13" t="n"/>
-      <c r="E57" s="12" t="n"/>
-      <c r="F57" s="13" t="n"/>
-      <c r="G57" s="12" t="n"/>
-      <c r="H57" s="13" t="n"/>
-      <c r="I57" s="12" t="n"/>
-      <c r="J57" s="13" t="n"/>
-      <c r="K57" s="13" t="n"/>
+      <c r="A57" s="11" t="inlineStr">
+        <is>
+          <t>022</t>
+        </is>
+      </c>
+      <c r="B57" s="1" t="inlineStr">
+        <is>
+          <t>MILK AND CREAM AND MILK PRODUCTS OTHER THAN BUTTER OR CHEESE</t>
+        </is>
+      </c>
+      <c r="C57" s="8" t="n">
+        <v>946.982693</v>
+      </c>
+      <c r="D57" s="9" t="n">
+        <v>25.46691124649563</v>
+      </c>
+      <c r="E57" s="8" t="n">
+        <v>1416.241949</v>
+      </c>
+      <c r="F57" s="9" t="n">
+        <v>30.07996002696044</v>
+      </c>
+      <c r="G57" s="8" t="n">
+        <v>1732.303475</v>
+      </c>
+      <c r="H57" s="9" t="n">
+        <v>32.18178206752462</v>
+      </c>
+      <c r="I57" s="8" t="n">
+        <v>1448.977502</v>
+      </c>
+      <c r="J57" s="9" t="n">
+        <v>37.67803641387831</v>
+      </c>
+      <c r="K57" s="9" t="n">
+        <v>36.88453021204072</v>
+      </c>
     </row>
     <row r="58">
-      <c r="A58" s="11" t="n"/>
-      <c r="C58" s="12" t="n"/>
-      <c r="D58" s="13" t="n"/>
-      <c r="E58" s="12" t="n"/>
-      <c r="F58" s="13" t="n"/>
-      <c r="G58" s="12" t="n"/>
-      <c r="H58" s="13" t="n"/>
-      <c r="I58" s="12" t="n"/>
-      <c r="J58" s="13" t="n"/>
-      <c r="K58" s="13" t="n"/>
+      <c r="A58" s="11" t="inlineStr">
+        <is>
+          <t>057</t>
+        </is>
+      </c>
+      <c r="B58" s="1" t="inlineStr">
+        <is>
+          <t>FRUIT AND NUTS (NOT INCLUDING OIL NUTS), FRESH OR DRIED</t>
+        </is>
+      </c>
+      <c r="C58" s="8" t="n">
+        <v>354.033784</v>
+      </c>
+      <c r="D58" s="9" t="n">
+        <v>9.520920521605564</v>
+      </c>
+      <c r="E58" s="8" t="n">
+        <v>388.792039</v>
+      </c>
+      <c r="F58" s="9" t="n">
+        <v>8.257663176957939</v>
+      </c>
+      <c r="G58" s="8" t="n">
+        <v>499.645509</v>
+      </c>
+      <c r="H58" s="9" t="n">
+        <v>9.282139713802403</v>
+      </c>
+      <c r="I58" s="8" t="n">
+        <v>535.457216</v>
+      </c>
+      <c r="J58" s="9" t="n">
+        <v>13.92359540067027</v>
+      </c>
+      <c r="K58" s="9" t="n">
+        <v>63.16826204599553</v>
+      </c>
     </row>
     <row r="59">
-      <c r="A59" s="11" t="n"/>
-      <c r="C59" s="12" t="n"/>
-      <c r="D59" s="13" t="n"/>
-      <c r="E59" s="12" t="n"/>
-      <c r="F59" s="13" t="n"/>
-      <c r="G59" s="12" t="n"/>
-      <c r="H59" s="13" t="n"/>
-      <c r="I59" s="12" t="n"/>
-      <c r="J59" s="13" t="n"/>
-      <c r="K59" s="13" t="n"/>
+      <c r="A59" s="11" t="inlineStr">
+        <is>
+          <t>714</t>
+        </is>
+      </c>
+      <c r="B59" s="1" t="inlineStr">
+        <is>
+          <t>ENGINES AND MOTORS, NON-ELECTRIC (OTHER THAN THOSE OF GROUPS 712, 713 AND 718); PARTS, N.E.S. OF THESE ENGINES AND MOTORS</t>
+        </is>
+      </c>
+      <c r="C59" s="8" t="n">
+        <v>6.690515</v>
+      </c>
+      <c r="D59" s="9" t="n">
+        <v>0.1799259405243932</v>
+      </c>
+      <c r="E59" s="8" t="n">
+        <v>126.295766</v>
+      </c>
+      <c r="F59" s="9" t="n">
+        <v>2.682431201488404</v>
+      </c>
+      <c r="G59" s="8" t="n">
+        <v>609.926259</v>
+      </c>
+      <c r="H59" s="9" t="n">
+        <v>11.33087488864997</v>
+      </c>
+      <c r="I59" s="8" t="n">
+        <v>371.388592</v>
+      </c>
+      <c r="J59" s="9" t="n">
+        <v>9.657287896989718</v>
+      </c>
+      <c r="K59" s="9" t="n">
+        <v>21.80930605569886</v>
+      </c>
     </row>
     <row r="60">
-      <c r="A60" s="11" t="n"/>
-      <c r="C60" s="12" t="n"/>
-      <c r="D60" s="13" t="n"/>
-      <c r="E60" s="12" t="n"/>
-      <c r="F60" s="13" t="n"/>
-      <c r="G60" s="12" t="n"/>
-      <c r="H60" s="13" t="n"/>
-      <c r="I60" s="12" t="n"/>
-      <c r="J60" s="13" t="n"/>
-      <c r="K60" s="13" t="n"/>
+      <c r="A60" s="11" t="inlineStr">
+        <is>
+          <t>012</t>
+        </is>
+      </c>
+      <c r="B60" s="1" t="inlineStr">
+        <is>
+          <t>OTHER MEAT AND EDIBLE MEAT OFFAL, FRESH, CHILLED OR FROZEN (EXCEPT MEAT AND MEAT OFFAL UNFIT FOR HUMAN CONSUMPTION)</t>
+        </is>
+      </c>
+      <c r="C60" s="8" t="n">
+        <v>315.411269</v>
+      </c>
+      <c r="D60" s="9" t="n">
+        <v>8.482257229348917</v>
+      </c>
+      <c r="E60" s="8" t="n">
+        <v>386.557415</v>
+      </c>
+      <c r="F60" s="9" t="n">
+        <v>8.210201370984215</v>
+      </c>
+      <c r="G60" s="8" t="n">
+        <v>430.540374</v>
+      </c>
+      <c r="H60" s="9" t="n">
+        <v>7.998342488655771</v>
+      </c>
+      <c r="I60" s="8" t="n">
+        <v>251.704785</v>
+      </c>
+      <c r="J60" s="9" t="n">
+        <v>6.545127196031101</v>
+      </c>
+      <c r="K60" s="9" t="n">
+        <v>-13.43797869465433</v>
+      </c>
     </row>
     <row r="61">
-      <c r="A61" s="11" t="n"/>
-      <c r="C61" s="12" t="n"/>
-      <c r="D61" s="13" t="n"/>
-      <c r="E61" s="12" t="n"/>
-      <c r="F61" s="13" t="n"/>
-      <c r="G61" s="12" t="n"/>
-      <c r="H61" s="13" t="n"/>
-      <c r="I61" s="12" t="n"/>
-      <c r="J61" s="13" t="n"/>
-      <c r="K61" s="13" t="n"/>
+      <c r="A61" s="11" t="inlineStr">
+        <is>
+          <t>023</t>
+        </is>
+      </c>
+      <c r="B61" s="1" t="inlineStr">
+        <is>
+          <t>BUTTER AND OTHER FATS AND OILS DERIVED FROM MILK</t>
+        </is>
+      </c>
+      <c r="C61" s="8" t="n">
+        <v>121.698609</v>
+      </c>
+      <c r="D61" s="9" t="n">
+        <v>3.272802868663381</v>
+      </c>
+      <c r="E61" s="8" t="n">
+        <v>309.857445</v>
+      </c>
+      <c r="F61" s="9" t="n">
+        <v>6.581149192930799</v>
+      </c>
+      <c r="G61" s="8" t="n">
+        <v>248.342947</v>
+      </c>
+      <c r="H61" s="9" t="n">
+        <v>4.613578806312107</v>
+      </c>
+      <c r="I61" s="8" t="n">
+        <v>150.336516</v>
+      </c>
+      <c r="J61" s="9" t="n">
+        <v>3.909228898561324</v>
+      </c>
+      <c r="K61" s="9" t="n">
+        <v>-9.688691796808069</v>
+      </c>
     </row>
     <row r="62">
-      <c r="A62" s="11" t="n"/>
-      <c r="C62" s="12" t="n"/>
-      <c r="D62" s="13" t="n"/>
-      <c r="E62" s="12" t="n"/>
-      <c r="F62" s="13" t="n"/>
-      <c r="G62" s="12" t="n"/>
-      <c r="H62" s="13" t="n"/>
-      <c r="I62" s="12" t="n"/>
-      <c r="J62" s="13" t="n"/>
-      <c r="K62" s="13" t="n"/>
+      <c r="A62" s="11" t="inlineStr">
+        <is>
+          <t>001</t>
+        </is>
+      </c>
+      <c r="B62" s="1" t="inlineStr">
+        <is>
+          <t>LIVE ANIMALS OTHER THAN ANIMALS OF DIVISION 03</t>
+        </is>
+      </c>
+      <c r="C62" s="8" t="n">
+        <v>132.102502</v>
+      </c>
+      <c r="D62" s="9" t="n">
+        <v>3.5525915296469</v>
+      </c>
+      <c r="E62" s="8" t="n">
+        <v>263.255947</v>
+      </c>
+      <c r="F62" s="9" t="n">
+        <v>5.591366904652826</v>
+      </c>
+      <c r="G62" s="8" t="n">
+        <v>200.102014</v>
+      </c>
+      <c r="H62" s="9" t="n">
+        <v>3.717385261159717</v>
+      </c>
+      <c r="I62" s="8" t="n">
+        <v>149.70047</v>
+      </c>
+      <c r="J62" s="9" t="n">
+        <v>3.89268967395927</v>
+      </c>
+      <c r="K62" s="9" t="n">
+        <v>58.18017043125485</v>
+      </c>
     </row>
     <row r="63">
-      <c r="A63" s="11" t="n"/>
-      <c r="C63" s="12" t="n"/>
-      <c r="D63" s="13" t="n"/>
-      <c r="E63" s="12" t="n"/>
-      <c r="F63" s="13" t="n"/>
-      <c r="G63" s="12" t="n"/>
-      <c r="H63" s="13" t="n"/>
-      <c r="I63" s="12" t="n"/>
-      <c r="J63" s="13" t="n"/>
-      <c r="K63" s="13" t="n"/>
+      <c r="A63" s="11" t="inlineStr">
+        <is>
+          <t>011</t>
+        </is>
+      </c>
+      <c r="B63" s="1" t="inlineStr">
+        <is>
+          <t>MEAT OF BOVINE ANIMALS, FRESH, CHILLED OR FROZEN</t>
+        </is>
+      </c>
+      <c r="C63" s="8" t="n">
+        <v>163.645352</v>
+      </c>
+      <c r="D63" s="9" t="n">
+        <v>4.400863591374563</v>
+      </c>
+      <c r="E63" s="8" t="n">
+        <v>198.048178</v>
+      </c>
+      <c r="F63" s="9" t="n">
+        <v>4.206400807332918</v>
+      </c>
+      <c r="G63" s="8" t="n">
+        <v>173.674261</v>
+      </c>
+      <c r="H63" s="9" t="n">
+        <v>3.226424987827488</v>
+      </c>
+      <c r="I63" s="8" t="n">
+        <v>88.510808</v>
+      </c>
+      <c r="J63" s="9" t="n">
+        <v>2.301563303945482</v>
+      </c>
+      <c r="K63" s="9" t="n">
+        <v>-20.8010391281261</v>
+      </c>
     </row>
     <row r="64">
-      <c r="A64" s="11" t="n"/>
-      <c r="C64" s="12" t="n"/>
-      <c r="D64" s="13" t="n"/>
-      <c r="E64" s="12" t="n"/>
-      <c r="F64" s="13" t="n"/>
-      <c r="G64" s="12" t="n"/>
-      <c r="H64" s="13" t="n"/>
-      <c r="I64" s="12" t="n"/>
-      <c r="J64" s="13" t="n"/>
-      <c r="K64" s="13" t="n"/>
+      <c r="A64" s="11" t="inlineStr">
+        <is>
+          <t>036</t>
+        </is>
+      </c>
+      <c r="B64" s="1" t="inlineStr">
+        <is>
+          <t>CRUSTACEANS, MOLLUSCS &amp; AQUATIC INVERTEBRATES; CRUSTACEANS, IN SHELL, COOKED BY BOILING IN WATER; FLOURS, MEALS &amp; PELLETS OF CRUSTACEANS, FIT FOR HUMAN CONSUMPTION</t>
+        </is>
+      </c>
+      <c r="C64" s="8" t="n">
+        <v>112.048861</v>
+      </c>
+      <c r="D64" s="9" t="n">
+        <v>3.013295194781268</v>
+      </c>
+      <c r="E64" s="8" t="n">
+        <v>131.909119</v>
+      </c>
+      <c r="F64" s="9" t="n">
+        <v>2.801654780465458</v>
+      </c>
+      <c r="G64" s="8" t="n">
+        <v>120.822101</v>
+      </c>
+      <c r="H64" s="9" t="n">
+        <v>2.244566601312422</v>
+      </c>
+      <c r="I64" s="8" t="n">
+        <v>81.502047</v>
+      </c>
+      <c r="J64" s="9" t="n">
+        <v>2.119313164236846</v>
+      </c>
+      <c r="K64" s="9" t="n">
+        <v>8.700413300600607</v>
+      </c>
     </row>
     <row r="65">
-      <c r="A65" s="11" t="n"/>
-      <c r="C65" s="12" t="n"/>
-      <c r="D65" s="13" t="n"/>
-      <c r="E65" s="12" t="n"/>
-      <c r="F65" s="13" t="n"/>
-      <c r="G65" s="12" t="n"/>
-      <c r="H65" s="13" t="n"/>
-      <c r="I65" s="12" t="n"/>
-      <c r="J65" s="13" t="n"/>
-      <c r="K65" s="13" t="n"/>
+      <c r="A65" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B65" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C65" s="8" t="n">
+        <v>124.854582</v>
+      </c>
+      <c r="D65" s="9" t="n">
+        <v>3.357675469695527</v>
+      </c>
+      <c r="E65" s="8" t="n">
+        <v>99.603724</v>
+      </c>
+      <c r="F65" s="9" t="n">
+        <v>2.115511434025741</v>
+      </c>
+      <c r="G65" s="8" t="n">
+        <v>119.069834</v>
+      </c>
+      <c r="H65" s="9" t="n">
+        <v>2.212013947847292</v>
+      </c>
+      <c r="I65" s="8" t="n">
+        <v>67.874607</v>
+      </c>
+      <c r="J65" s="9" t="n">
+        <v>1.76495626094523</v>
+      </c>
+      <c r="K65" s="9" t="n">
+        <v>-4.492395566631647</v>
+      </c>
     </row>
     <row r="66">
-      <c r="A66" s="11" t="n"/>
-      <c r="C66" s="12" t="n"/>
-      <c r="D66" s="13" t="n"/>
-      <c r="E66" s="12" t="n"/>
-      <c r="F66" s="13" t="n"/>
-      <c r="G66" s="12" t="n"/>
-      <c r="H66" s="13" t="n"/>
-      <c r="I66" s="12" t="n"/>
-      <c r="J66" s="13" t="n"/>
-      <c r="K66" s="13" t="n"/>
+      <c r="A66" s="11" t="inlineStr">
+        <is>
+          <t>098</t>
+        </is>
+      </c>
+      <c r="B66" s="1" t="inlineStr">
+        <is>
+          <t>EDIBLE PRODUCTS AND PREPARATIONS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C66" s="8" t="n">
+        <v>188.67427</v>
+      </c>
+      <c r="D66" s="9" t="n">
+        <v>5.073958504315931</v>
+      </c>
+      <c r="E66" s="8" t="n">
+        <v>91.220957</v>
+      </c>
+      <c r="F66" s="9" t="n">
+        <v>1.937467494250219</v>
+      </c>
+      <c r="G66" s="8" t="n">
+        <v>118.4213</v>
+      </c>
+      <c r="H66" s="9" t="n">
+        <v>2.199965839561081</v>
+      </c>
+      <c r="I66" s="8" t="n">
+        <v>67.842446</v>
+      </c>
+      <c r="J66" s="9" t="n">
+        <v>1.764119972371091</v>
+      </c>
+      <c r="K66" s="9" t="n">
+        <v>11.6111779171032</v>
+      </c>
     </row>
     <row r="67">
-      <c r="A67" s="11" t="n"/>
-      <c r="C67" s="12" t="n"/>
-      <c r="D67" s="13" t="n"/>
-      <c r="E67" s="12" t="n"/>
-      <c r="F67" s="13" t="n"/>
-      <c r="G67" s="12" t="n"/>
-      <c r="H67" s="13" t="n"/>
-      <c r="I67" s="12" t="n"/>
-      <c r="J67" s="13" t="n"/>
-      <c r="K67" s="13" t="n"/>
+      <c r="A67" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B67" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C67" s="8" t="n">
+        <v>1252.340279</v>
+      </c>
+      <c r="D67" s="9" t="n">
+        <v>33.67879790354792</v>
+      </c>
+      <c r="E67" s="8" t="n">
+        <v>1296.474878</v>
+      </c>
+      <c r="F67" s="9" t="n">
+        <v>27.53619360995104</v>
+      </c>
+      <c r="G67" s="8" t="n">
+        <v>1130.021872</v>
+      </c>
+      <c r="H67" s="9" t="n">
+        <v>20.99292539734713</v>
+      </c>
+      <c r="I67" s="8" t="n">
+        <v>632.387111</v>
+      </c>
+      <c r="J67" s="9" t="n">
+        <v>16.44408181841136</v>
+      </c>
+      <c r="K67" s="9" t="n">
+        <v>-5.171794325240054</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="11" t="n"/>
